--- a/console/Networking/agExcel/components/deleteAG.xlsx
+++ b/console/Networking/agExcel/components/deleteAG.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lulu8/Documents/帮助文档/en/console/Networking/agExcel/components/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93090AF-5742-F046-AA28-0073AB42637F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10740"/>
+    <workbookView xWindow="1080" yWindow="-15400" windowWidth="29820" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -88,20 +94,23 @@
     </r>
   </si>
   <si>
-    <t>Please remove the Virtual Machines from the Availability Group before deleting the later. The removed instances will have no attributes of the Availability Group and the addition of Availability Groups is not supported.</t>
-  </si>
-  <si>
-    <t>Confirm to delete Availability Groups</t>
-  </si>
-  <si>
-    <t>Agree to remove all instances from the Availability Groups</t>
+    <t>Confirm to delete the Availability Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Agree to remove all instances from the Availability Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please remove the VMs from the Availability Group before deleting. The removed instances will have no attributes of the Availability Group and cannot be moved in a Availability Group.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -490,22 +499,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C1" sqref="C1:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="23.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="59.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="51.25" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="23.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="59.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="51.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="34.1640625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="69" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="76">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,10 +523,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="19">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -524,10 +534,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="38">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -535,7 +545,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
